--- a/WWTF/WWTFCostPlanningTool_LEMONADE.xlsx
+++ b/WWTF/WWTFCostPlanningTool_LEMONADE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hideyoshi\ownCloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proofs-as-Programs-in-Classical-Logic\WWTF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF9053-188F-4F75-877A-5BD58D6AC1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EB4692-5B0E-4500-B00D-BA36E0A7E8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1245" windowWidth="23700" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="2070" windowWidth="23700" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>Proposal Title:</t>
   </si>
@@ -1089,6 +1089,101 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="8"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
@@ -1097,14 +1192,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,93 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="8"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2262,31 +2262,31 @@
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="90"/>
+      <c r="C1" s="116"/>
       <c r="D1" s="80"/>
       <c r="E1" s="80"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="3"/>
@@ -2295,10 +2295,10 @@
       <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="111"/>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
       <c r="F3" s="3"/>
@@ -2316,8 +2316,8 @@
       <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="80"/>
       <c r="E4" s="80"/>
       <c r="F4" s="3"/>
@@ -2331,8 +2331,8 @@
       <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
       <c r="F5" s="3"/>
@@ -2350,8 +2350,8 @@
       <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
       <c r="F6" s="3"/>
@@ -2380,8 +2380,8 @@
       <c r="A8" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="80"/>
       <c r="E8" s="80"/>
       <c r="F8" s="3"/>
@@ -2395,10 +2395,10 @@
       <c r="A9" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="112">
         <v>48</v>
       </c>
-      <c r="C9" s="112"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="3"/>
@@ -2437,21 +2437,21 @@
       <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="93" t="s">
+      <c r="I12" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
       <c r="M12" s="12" t="s">
         <v>56</v>
       </c>
@@ -2517,31 +2517,29 @@
       <c r="F14" s="21">
         <v>1</v>
       </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
+      <c r="G14" s="21"/>
       <c r="H14" s="84">
-        <v>40860</v>
+        <v>56220</v>
       </c>
       <c r="I14" s="53">
         <f>H14*D14</f>
-        <v>40860</v>
+        <v>56220</v>
       </c>
       <c r="J14" s="53">
         <f>H14*1.03*E14</f>
-        <v>42085.8</v>
+        <v>57906.6</v>
       </c>
       <c r="K14" s="53">
         <f>IF(($B$9-24)&lt;12, $H14*1.03^2/12*($B$9-24)*F14,$H14*1.03^2*F14)</f>
-        <v>43348.373999999996</v>
+        <v>59643.797999999995</v>
       </c>
       <c r="L14" s="53">
         <f>IF(($B$9-36)&lt;12, $H14*1.03^3/12*($B$9-36)*G14,$H14*1.03^3*G14)</f>
-        <v>44648.825219999999</v>
+        <v>0</v>
       </c>
       <c r="M14" s="54">
         <f>SUM(I14:L14)</f>
-        <v>170942.99922</v>
+        <v>173770.39799999999</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2563,31 +2561,29 @@
       <c r="F15" s="21">
         <v>1</v>
       </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
+      <c r="G15" s="21"/>
       <c r="H15" s="84">
-        <v>40860</v>
+        <v>56220</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" ref="I15:I23" si="0">H15*D15</f>
-        <v>40860</v>
+        <v>56220</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" ref="J15:J23" si="1">H15*1.03*E15</f>
-        <v>42085.8</v>
+        <v>57906.6</v>
       </c>
       <c r="K15" s="53">
         <f>IF(($B$9-24)&lt;12, $H15*1.03^2/12*($B$9-24)*F15,$H15*1.03^2*F15)</f>
-        <v>43348.373999999996</v>
+        <v>59643.797999999995</v>
       </c>
       <c r="L15" s="53">
         <f t="shared" ref="L15:L23" si="2">IF(($B$9-36)&lt;12, $H15*1.03^3/12*($B$9-36)*G15,$H15*1.03^3*G15)</f>
-        <v>44648.825219999999</v>
+        <v>0</v>
       </c>
       <c r="M15" s="54">
         <f t="shared" ref="M15:M23" si="3">SUM(I15:L15)</f>
-        <v>170942.99922</v>
+        <v>173770.39799999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2595,21 +2591,19 @@
         <v>62</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
+      <c r="F16" s="21"/>
       <c r="G16" s="21">
         <v>1</v>
       </c>
       <c r="H16" s="84">
-        <v>72030</v>
+        <v>66420</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="0"/>
@@ -2621,26 +2615,36 @@
       </c>
       <c r="K16" s="53">
         <f t="shared" ref="K16:K23" si="4">IF(($B$9-24)&lt;12, $H16*1.03^2/12*($B$9-24)*F16,$H16*1.03^2*F16)</f>
-        <v>76416.626999999993</v>
+        <v>0</v>
       </c>
       <c r="L16" s="53">
         <f t="shared" si="2"/>
-        <v>78709.125809999998</v>
+        <v>72578.927339999995</v>
       </c>
       <c r="M16" s="54">
         <f t="shared" si="3"/>
-        <v>155125.75280999998</v>
+        <v>72578.927339999995</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="84">
+        <v>66420</v>
+      </c>
       <c r="I17" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2655,11 +2659,11 @@
       </c>
       <c r="L17" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72578.927339999995</v>
       </c>
       <c r="M17" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72578.927339999995</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2855,23 +2859,23 @@
       <c r="H24" s="29"/>
       <c r="I24" s="57">
         <f>SUM(I14:I23)</f>
-        <v>81720</v>
+        <v>112440</v>
       </c>
       <c r="J24" s="57">
         <f>SUM(J14:J23)</f>
-        <v>84171.6</v>
+        <v>115813.2</v>
       </c>
       <c r="K24" s="57">
         <f>SUM(K14:K23)</f>
-        <v>163113.375</v>
+        <v>119287.59599999999</v>
       </c>
       <c r="L24" s="58">
         <f>SUM(L14:L23)</f>
-        <v>168006.77625</v>
+        <v>145157.85467999999</v>
       </c>
       <c r="M24" s="59">
         <f>SUM(M14:M23)</f>
-        <v>497011.75124999997</v>
+        <v>492698.65067999996</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2911,12 +2915,12 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
       <c r="M27" s="38" t="s">
         <v>57</v>
       </c>
@@ -2960,40 +2964,43 @@
       <c r="B29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="107"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
       <c r="I29" s="81">
-        <v>747</v>
+        <v>1825.34</v>
       </c>
       <c r="J29" s="81">
-        <v>747</v>
+        <f>I29</f>
+        <v>1825.34</v>
       </c>
       <c r="K29" s="81">
-        <v>747</v>
+        <f>I29</f>
+        <v>1825.34</v>
       </c>
       <c r="L29" s="81">
-        <v>747</v>
+        <f>I29</f>
+        <v>1825.34</v>
       </c>
       <c r="M29" s="83">
         <f>SUM(I29:L29)</f>
-        <v>2988</v>
+        <v>7301.36</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
       <c r="K30" s="81"/>
@@ -3006,12 +3013,12 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
       <c r="K31" s="81"/>
@@ -3024,12 +3031,12 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="107"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
       <c r="I32" s="81"/>
       <c r="J32" s="81"/>
       <c r="K32" s="81"/>
@@ -3042,12 +3049,12 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="107"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
       <c r="K33" s="81"/>
@@ -3060,12 +3067,12 @@
     <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="110"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
       <c r="I34" s="82"/>
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
@@ -3088,23 +3095,23 @@
       <c r="H35" s="47"/>
       <c r="I35" s="60">
         <f>SUM(I29:I34)</f>
-        <v>747</v>
+        <v>1825.34</v>
       </c>
       <c r="J35" s="60">
         <f>SUM(J29:J34)</f>
-        <v>747</v>
+        <v>1825.34</v>
       </c>
       <c r="K35" s="60">
         <f>SUM(K29:K34)</f>
-        <v>747</v>
+        <v>1825.34</v>
       </c>
       <c r="L35" s="61">
         <f>SUM(L29:L34)</f>
-        <v>747</v>
+        <v>1825.34</v>
       </c>
       <c r="M35" s="62">
         <f>SUM(M29:M34)</f>
-        <v>2988</v>
+        <v>7301.36</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,21 +3147,21 @@
       <c r="C38" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
       <c r="H38" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="98"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
       <c r="M38" s="38" t="s">
         <v>57</v>
       </c>
@@ -3169,12 +3176,12 @@
       <c r="C39" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="119"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
       <c r="H39" s="16" t="s">
         <v>49</v>
       </c>
@@ -3201,41 +3208,41 @@
       </c>
       <c r="B40" s="63">
         <f>SUMIF($C$14:$C$23,$A40,M$14:M$23)</f>
-        <v>497011.75124999997</v>
+        <v>492698.65067999996</v>
       </c>
       <c r="C40" s="53">
         <f t="shared" ref="C40:C45" ca="1" si="7">SUMIF(C$29:H$34,A40,M$29:M$34)</f>
-        <v>2988</v>
-      </c>
-      <c r="D40" s="102">
+        <v>7301.36</v>
+      </c>
+      <c r="D40" s="95">
         <v>0.2</v>
       </c>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="104"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
       <c r="H40" s="66">
         <f t="shared" ref="H40:H45" ca="1" si="8">D40*(B40+C40)</f>
-        <v>99999.950249999994</v>
+        <v>100000.002136</v>
       </c>
       <c r="I40" s="53">
         <f>SUMIF($C$14:$C$34,$A40,I$14:I$34)*(1+$D40)</f>
-        <v>98960.4</v>
+        <v>137118.408</v>
       </c>
       <c r="J40" s="53">
         <f t="shared" ref="J40:L45" si="9">SUMIF($C$14:$C$34,$A40,J$14:J$34)*(1+$D40)</f>
-        <v>101902.32</v>
+        <v>141166.24799999999</v>
       </c>
       <c r="K40" s="53">
         <f t="shared" si="9"/>
-        <v>196632.44999999998</v>
+        <v>145335.52319999997</v>
       </c>
       <c r="L40" s="53">
         <f t="shared" si="9"/>
-        <v>202504.53149999998</v>
+        <v>176379.83361599999</v>
       </c>
       <c r="M40" s="67">
         <f t="shared" ref="M40:M45" ca="1" si="10">B40+C40+H40</f>
-        <v>599999.70149999997</v>
+        <v>600000.01281599991</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3251,10 +3258,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="104"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
       <c r="H41" s="66">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
@@ -3293,10 +3300,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="104"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
       <c r="H42" s="66">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
@@ -3335,10 +3342,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="104"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
       <c r="H43" s="66">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
@@ -3377,10 +3384,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="104"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="97"/>
       <c r="H44" s="66">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
@@ -3419,10 +3426,10 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="D45" s="114"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="116"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="68">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
@@ -3461,33 +3468,32 @@
       <c r="H46" s="70"/>
       <c r="I46" s="71">
         <f>SUM(I40:I45)</f>
-        <v>98960.4</v>
+        <v>137118.408</v>
       </c>
       <c r="J46" s="71">
         <f>SUM(J40:J45)</f>
-        <v>101902.32</v>
+        <v>141166.24799999999</v>
       </c>
       <c r="K46" s="71">
         <f>SUM(K40:K45)</f>
-        <v>196632.44999999998</v>
+        <v>145335.52319999997</v>
       </c>
       <c r="L46" s="72">
         <f>SUM(L40:L45)</f>
-        <v>202504.53149999998</v>
+        <v>176379.83361599999</v>
       </c>
       <c r="M46" s="73">
         <f ca="1">SUM(M40:M45)</f>
-        <v>599999.70149999997</v>
+        <v>600000.01281599991</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="I38:L38"/>
@@ -3504,11 +3510,12 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D44:G44"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVJ983055:WVJ983064 WLN983055:WLN983064 WBR983055:WBR983064 VRV983055:VRV983064 VHZ983055:VHZ983064 UYD983055:UYD983064 UOH983055:UOH983064 UEL983055:UEL983064 TUP983055:TUP983064 TKT983055:TKT983064 TAX983055:TAX983064 SRB983055:SRB983064 SHF983055:SHF983064 RXJ983055:RXJ983064 RNN983055:RNN983064 RDR983055:RDR983064 QTV983055:QTV983064 QJZ983055:QJZ983064 QAD983055:QAD983064 PQH983055:PQH983064 PGL983055:PGL983064 OWP983055:OWP983064 OMT983055:OMT983064 OCX983055:OCX983064 NTB983055:NTB983064 NJF983055:NJF983064 MZJ983055:MZJ983064 MPN983055:MPN983064 MFR983055:MFR983064 LVV983055:LVV983064 LLZ983055:LLZ983064 LCD983055:LCD983064 KSH983055:KSH983064 KIL983055:KIL983064 JYP983055:JYP983064 JOT983055:JOT983064 JEX983055:JEX983064 IVB983055:IVB983064 ILF983055:ILF983064 IBJ983055:IBJ983064 HRN983055:HRN983064 HHR983055:HHR983064 GXV983055:GXV983064 GNZ983055:GNZ983064 GED983055:GED983064 FUH983055:FUH983064 FKL983055:FKL983064 FAP983055:FAP983064 EQT983055:EQT983064 EGX983055:EGX983064 DXB983055:DXB983064 DNF983055:DNF983064 DDJ983055:DDJ983064 CTN983055:CTN983064 CJR983055:CJR983064 BZV983055:BZV983064 BPZ983055:BPZ983064 BGD983055:BGD983064 AWH983055:AWH983064 AML983055:AML983064 ACP983055:ACP983064 ST983055:ST983064 IX983055:IX983064 B983055:B983064 WVJ917519:WVJ917528 WLN917519:WLN917528 WBR917519:WBR917528 VRV917519:VRV917528 VHZ917519:VHZ917528 UYD917519:UYD917528 UOH917519:UOH917528 UEL917519:UEL917528 TUP917519:TUP917528 TKT917519:TKT917528 TAX917519:TAX917528 SRB917519:SRB917528 SHF917519:SHF917528 RXJ917519:RXJ917528 RNN917519:RNN917528 RDR917519:RDR917528 QTV917519:QTV917528 QJZ917519:QJZ917528 QAD917519:QAD917528 PQH917519:PQH917528 PGL917519:PGL917528 OWP917519:OWP917528 OMT917519:OMT917528 OCX917519:OCX917528 NTB917519:NTB917528 NJF917519:NJF917528 MZJ917519:MZJ917528 MPN917519:MPN917528 MFR917519:MFR917528 LVV917519:LVV917528 LLZ917519:LLZ917528 LCD917519:LCD917528 KSH917519:KSH917528 KIL917519:KIL917528 JYP917519:JYP917528 JOT917519:JOT917528 JEX917519:JEX917528 IVB917519:IVB917528 ILF917519:ILF917528 IBJ917519:IBJ917528 HRN917519:HRN917528 HHR917519:HHR917528 GXV917519:GXV917528 GNZ917519:GNZ917528 GED917519:GED917528 FUH917519:FUH917528 FKL917519:FKL917528 FAP917519:FAP917528 EQT917519:EQT917528 EGX917519:EGX917528 DXB917519:DXB917528 DNF917519:DNF917528 DDJ917519:DDJ917528 CTN917519:CTN917528 CJR917519:CJR917528 BZV917519:BZV917528 BPZ917519:BPZ917528 BGD917519:BGD917528 AWH917519:AWH917528 AML917519:AML917528 ACP917519:ACP917528 ST917519:ST917528 IX917519:IX917528 B917519:B917528 WVJ851983:WVJ851992 WLN851983:WLN851992 WBR851983:WBR851992 VRV851983:VRV851992 VHZ851983:VHZ851992 UYD851983:UYD851992 UOH851983:UOH851992 UEL851983:UEL851992 TUP851983:TUP851992 TKT851983:TKT851992 TAX851983:TAX851992 SRB851983:SRB851992 SHF851983:SHF851992 RXJ851983:RXJ851992 RNN851983:RNN851992 RDR851983:RDR851992 QTV851983:QTV851992 QJZ851983:QJZ851992 QAD851983:QAD851992 PQH851983:PQH851992 PGL851983:PGL851992 OWP851983:OWP851992 OMT851983:OMT851992 OCX851983:OCX851992 NTB851983:NTB851992 NJF851983:NJF851992 MZJ851983:MZJ851992 MPN851983:MPN851992 MFR851983:MFR851992 LVV851983:LVV851992 LLZ851983:LLZ851992 LCD851983:LCD851992 KSH851983:KSH851992 KIL851983:KIL851992 JYP851983:JYP851992 JOT851983:JOT851992 JEX851983:JEX851992 IVB851983:IVB851992 ILF851983:ILF851992 IBJ851983:IBJ851992 HRN851983:HRN851992 HHR851983:HHR851992 GXV851983:GXV851992 GNZ851983:GNZ851992 GED851983:GED851992 FUH851983:FUH851992 FKL851983:FKL851992 FAP851983:FAP851992 EQT851983:EQT851992 EGX851983:EGX851992 DXB851983:DXB851992 DNF851983:DNF851992 DDJ851983:DDJ851992 CTN851983:CTN851992 CJR851983:CJR851992 BZV851983:BZV851992 BPZ851983:BPZ851992 BGD851983:BGD851992 AWH851983:AWH851992 AML851983:AML851992 ACP851983:ACP851992 ST851983:ST851992 IX851983:IX851992 B851983:B851992 WVJ786447:WVJ786456 WLN786447:WLN786456 WBR786447:WBR786456 VRV786447:VRV786456 VHZ786447:VHZ786456 UYD786447:UYD786456 UOH786447:UOH786456 UEL786447:UEL786456 TUP786447:TUP786456 TKT786447:TKT786456 TAX786447:TAX786456 SRB786447:SRB786456 SHF786447:SHF786456 RXJ786447:RXJ786456 RNN786447:RNN786456 RDR786447:RDR786456 QTV786447:QTV786456 QJZ786447:QJZ786456 QAD786447:QAD786456 PQH786447:PQH786456 PGL786447:PGL786456 OWP786447:OWP786456 OMT786447:OMT786456 OCX786447:OCX786456 NTB786447:NTB786456 NJF786447:NJF786456 MZJ786447:MZJ786456 MPN786447:MPN786456 MFR786447:MFR786456 LVV786447:LVV786456 LLZ786447:LLZ786456 LCD786447:LCD786456 KSH786447:KSH786456 KIL786447:KIL786456 JYP786447:JYP786456 JOT786447:JOT786456 JEX786447:JEX786456 IVB786447:IVB786456 ILF786447:ILF786456 IBJ786447:IBJ786456 HRN786447:HRN786456 HHR786447:HHR786456 GXV786447:GXV786456 GNZ786447:GNZ786456 GED786447:GED786456 FUH786447:FUH786456 FKL786447:FKL786456 FAP786447:FAP786456 EQT786447:EQT786456 EGX786447:EGX786456 DXB786447:DXB786456 DNF786447:DNF786456 DDJ786447:DDJ786456 CTN786447:CTN786456 CJR786447:CJR786456 BZV786447:BZV786456 BPZ786447:BPZ786456 BGD786447:BGD786456 AWH786447:AWH786456 AML786447:AML786456 ACP786447:ACP786456 ST786447:ST786456 IX786447:IX786456 B786447:B786456 WVJ720911:WVJ720920 WLN720911:WLN720920 WBR720911:WBR720920 VRV720911:VRV720920 VHZ720911:VHZ720920 UYD720911:UYD720920 UOH720911:UOH720920 UEL720911:UEL720920 TUP720911:TUP720920 TKT720911:TKT720920 TAX720911:TAX720920 SRB720911:SRB720920 SHF720911:SHF720920 RXJ720911:RXJ720920 RNN720911:RNN720920 RDR720911:RDR720920 QTV720911:QTV720920 QJZ720911:QJZ720920 QAD720911:QAD720920 PQH720911:PQH720920 PGL720911:PGL720920 OWP720911:OWP720920 OMT720911:OMT720920 OCX720911:OCX720920 NTB720911:NTB720920 NJF720911:NJF720920 MZJ720911:MZJ720920 MPN720911:MPN720920 MFR720911:MFR720920 LVV720911:LVV720920 LLZ720911:LLZ720920 LCD720911:LCD720920 KSH720911:KSH720920 KIL720911:KIL720920 JYP720911:JYP720920 JOT720911:JOT720920 JEX720911:JEX720920 IVB720911:IVB720920 ILF720911:ILF720920 IBJ720911:IBJ720920 HRN720911:HRN720920 HHR720911:HHR720920 GXV720911:GXV720920 GNZ720911:GNZ720920 GED720911:GED720920 FUH720911:FUH720920 FKL720911:FKL720920 FAP720911:FAP720920 EQT720911:EQT720920 EGX720911:EGX720920 DXB720911:DXB720920 DNF720911:DNF720920 DDJ720911:DDJ720920 CTN720911:CTN720920 CJR720911:CJR720920 BZV720911:BZV720920 BPZ720911:BPZ720920 BGD720911:BGD720920 AWH720911:AWH720920 AML720911:AML720920 ACP720911:ACP720920 ST720911:ST720920 IX720911:IX720920 B720911:B720920 WVJ655375:WVJ655384 WLN655375:WLN655384 WBR655375:WBR655384 VRV655375:VRV655384 VHZ655375:VHZ655384 UYD655375:UYD655384 UOH655375:UOH655384 UEL655375:UEL655384 TUP655375:TUP655384 TKT655375:TKT655384 TAX655375:TAX655384 SRB655375:SRB655384 SHF655375:SHF655384 RXJ655375:RXJ655384 RNN655375:RNN655384 RDR655375:RDR655384 QTV655375:QTV655384 QJZ655375:QJZ655384 QAD655375:QAD655384 PQH655375:PQH655384 PGL655375:PGL655384 OWP655375:OWP655384 OMT655375:OMT655384 OCX655375:OCX655384 NTB655375:NTB655384 NJF655375:NJF655384 MZJ655375:MZJ655384 MPN655375:MPN655384 MFR655375:MFR655384 LVV655375:LVV655384 LLZ655375:LLZ655384 LCD655375:LCD655384 KSH655375:KSH655384 KIL655375:KIL655384 JYP655375:JYP655384 JOT655375:JOT655384 JEX655375:JEX655384 IVB655375:IVB655384 ILF655375:ILF655384 IBJ655375:IBJ655384 HRN655375:HRN655384 HHR655375:HHR655384 GXV655375:GXV655384 GNZ655375:GNZ655384 GED655375:GED655384 FUH655375:FUH655384 FKL655375:FKL655384 FAP655375:FAP655384 EQT655375:EQT655384 EGX655375:EGX655384 DXB655375:DXB655384 DNF655375:DNF655384 DDJ655375:DDJ655384 CTN655375:CTN655384 CJR655375:CJR655384 BZV655375:BZV655384 BPZ655375:BPZ655384 BGD655375:BGD655384 AWH655375:AWH655384 AML655375:AML655384 ACP655375:ACP655384 ST655375:ST655384 IX655375:IX655384 B655375:B655384 WVJ589839:WVJ589848 WLN589839:WLN589848 WBR589839:WBR589848 VRV589839:VRV589848 VHZ589839:VHZ589848 UYD589839:UYD589848 UOH589839:UOH589848 UEL589839:UEL589848 TUP589839:TUP589848 TKT589839:TKT589848 TAX589839:TAX589848 SRB589839:SRB589848 SHF589839:SHF589848 RXJ589839:RXJ589848 RNN589839:RNN589848 RDR589839:RDR589848 QTV589839:QTV589848 QJZ589839:QJZ589848 QAD589839:QAD589848 PQH589839:PQH589848 PGL589839:PGL589848 OWP589839:OWP589848 OMT589839:OMT589848 OCX589839:OCX589848 NTB589839:NTB589848 NJF589839:NJF589848 MZJ589839:MZJ589848 MPN589839:MPN589848 MFR589839:MFR589848 LVV589839:LVV589848 LLZ589839:LLZ589848 LCD589839:LCD589848 KSH589839:KSH589848 KIL589839:KIL589848 JYP589839:JYP589848 JOT589839:JOT589848 JEX589839:JEX589848 IVB589839:IVB589848 ILF589839:ILF589848 IBJ589839:IBJ589848 HRN589839:HRN589848 HHR589839:HHR589848 GXV589839:GXV589848 GNZ589839:GNZ589848 GED589839:GED589848 FUH589839:FUH589848 FKL589839:FKL589848 FAP589839:FAP589848 EQT589839:EQT589848 EGX589839:EGX589848 DXB589839:DXB589848 DNF589839:DNF589848 DDJ589839:DDJ589848 CTN589839:CTN589848 CJR589839:CJR589848 BZV589839:BZV589848 BPZ589839:BPZ589848 BGD589839:BGD589848 AWH589839:AWH589848 AML589839:AML589848 ACP589839:ACP589848 ST589839:ST589848 IX589839:IX589848 B589839:B589848 WVJ524303:WVJ524312 WLN524303:WLN524312 WBR524303:WBR524312 VRV524303:VRV524312 VHZ524303:VHZ524312 UYD524303:UYD524312 UOH524303:UOH524312 UEL524303:UEL524312 TUP524303:TUP524312 TKT524303:TKT524312 TAX524303:TAX524312 SRB524303:SRB524312 SHF524303:SHF524312 RXJ524303:RXJ524312 RNN524303:RNN524312 RDR524303:RDR524312 QTV524303:QTV524312 QJZ524303:QJZ524312 QAD524303:QAD524312 PQH524303:PQH524312 PGL524303:PGL524312 OWP524303:OWP524312 OMT524303:OMT524312 OCX524303:OCX524312 NTB524303:NTB524312 NJF524303:NJF524312 MZJ524303:MZJ524312 MPN524303:MPN524312 MFR524303:MFR524312 LVV524303:LVV524312 LLZ524303:LLZ524312 LCD524303:LCD524312 KSH524303:KSH524312 KIL524303:KIL524312 JYP524303:JYP524312 JOT524303:JOT524312 JEX524303:JEX524312 IVB524303:IVB524312 ILF524303:ILF524312 IBJ524303:IBJ524312 HRN524303:HRN524312 HHR524303:HHR524312 GXV524303:GXV524312 GNZ524303:GNZ524312 GED524303:GED524312 FUH524303:FUH524312 FKL524303:FKL524312 FAP524303:FAP524312 EQT524303:EQT524312 EGX524303:EGX524312 DXB524303:DXB524312 DNF524303:DNF524312 DDJ524303:DDJ524312 CTN524303:CTN524312 CJR524303:CJR524312 BZV524303:BZV524312 BPZ524303:BPZ524312 BGD524303:BGD524312 AWH524303:AWH524312 AML524303:AML524312 ACP524303:ACP524312 ST524303:ST524312 IX524303:IX524312 B524303:B524312 WVJ458767:WVJ458776 WLN458767:WLN458776 WBR458767:WBR458776 VRV458767:VRV458776 VHZ458767:VHZ458776 UYD458767:UYD458776 UOH458767:UOH458776 UEL458767:UEL458776 TUP458767:TUP458776 TKT458767:TKT458776 TAX458767:TAX458776 SRB458767:SRB458776 SHF458767:SHF458776 RXJ458767:RXJ458776 RNN458767:RNN458776 RDR458767:RDR458776 QTV458767:QTV458776 QJZ458767:QJZ458776 QAD458767:QAD458776 PQH458767:PQH458776 PGL458767:PGL458776 OWP458767:OWP458776 OMT458767:OMT458776 OCX458767:OCX458776 NTB458767:NTB458776 NJF458767:NJF458776 MZJ458767:MZJ458776 MPN458767:MPN458776 MFR458767:MFR458776 LVV458767:LVV458776 LLZ458767:LLZ458776 LCD458767:LCD458776 KSH458767:KSH458776 KIL458767:KIL458776 JYP458767:JYP458776 JOT458767:JOT458776 JEX458767:JEX458776 IVB458767:IVB458776 ILF458767:ILF458776 IBJ458767:IBJ458776 HRN458767:HRN458776 HHR458767:HHR458776 GXV458767:GXV458776 GNZ458767:GNZ458776 GED458767:GED458776 FUH458767:FUH458776 FKL458767:FKL458776 FAP458767:FAP458776 EQT458767:EQT458776 EGX458767:EGX458776 DXB458767:DXB458776 DNF458767:DNF458776 DDJ458767:DDJ458776 CTN458767:CTN458776 CJR458767:CJR458776 BZV458767:BZV458776 BPZ458767:BPZ458776 BGD458767:BGD458776 AWH458767:AWH458776 AML458767:AML458776 ACP458767:ACP458776 ST458767:ST458776 IX458767:IX458776 B458767:B458776 WVJ393231:WVJ393240 WLN393231:WLN393240 WBR393231:WBR393240 VRV393231:VRV393240 VHZ393231:VHZ393240 UYD393231:UYD393240 UOH393231:UOH393240 UEL393231:UEL393240 TUP393231:TUP393240 TKT393231:TKT393240 TAX393231:TAX393240 SRB393231:SRB393240 SHF393231:SHF393240 RXJ393231:RXJ393240 RNN393231:RNN393240 RDR393231:RDR393240 QTV393231:QTV393240 QJZ393231:QJZ393240 QAD393231:QAD393240 PQH393231:PQH393240 PGL393231:PGL393240 OWP393231:OWP393240 OMT393231:OMT393240 OCX393231:OCX393240 NTB393231:NTB393240 NJF393231:NJF393240 MZJ393231:MZJ393240 MPN393231:MPN393240 MFR393231:MFR393240 LVV393231:LVV393240 LLZ393231:LLZ393240 LCD393231:LCD393240 KSH393231:KSH393240 KIL393231:KIL393240 JYP393231:JYP393240 JOT393231:JOT393240 JEX393231:JEX393240 IVB393231:IVB393240 ILF393231:ILF393240 IBJ393231:IBJ393240 HRN393231:HRN393240 HHR393231:HHR393240 GXV393231:GXV393240 GNZ393231:GNZ393240 GED393231:GED393240 FUH393231:FUH393240 FKL393231:FKL393240 FAP393231:FAP393240 EQT393231:EQT393240 EGX393231:EGX393240 DXB393231:DXB393240 DNF393231:DNF393240 DDJ393231:DDJ393240 CTN393231:CTN393240 CJR393231:CJR393240 BZV393231:BZV393240 BPZ393231:BPZ393240 BGD393231:BGD393240 AWH393231:AWH393240 AML393231:AML393240 ACP393231:ACP393240 ST393231:ST393240 IX393231:IX393240 B393231:B393240 WVJ327695:WVJ327704 WLN327695:WLN327704 WBR327695:WBR327704 VRV327695:VRV327704 VHZ327695:VHZ327704 UYD327695:UYD327704 UOH327695:UOH327704 UEL327695:UEL327704 TUP327695:TUP327704 TKT327695:TKT327704 TAX327695:TAX327704 SRB327695:SRB327704 SHF327695:SHF327704 RXJ327695:RXJ327704 RNN327695:RNN327704 RDR327695:RDR327704 QTV327695:QTV327704 QJZ327695:QJZ327704 QAD327695:QAD327704 PQH327695:PQH327704 PGL327695:PGL327704 OWP327695:OWP327704 OMT327695:OMT327704 OCX327695:OCX327704 NTB327695:NTB327704 NJF327695:NJF327704 MZJ327695:MZJ327704 MPN327695:MPN327704 MFR327695:MFR327704 LVV327695:LVV327704 LLZ327695:LLZ327704 LCD327695:LCD327704 KSH327695:KSH327704 KIL327695:KIL327704 JYP327695:JYP327704 JOT327695:JOT327704 JEX327695:JEX327704 IVB327695:IVB327704 ILF327695:ILF327704 IBJ327695:IBJ327704 HRN327695:HRN327704 HHR327695:HHR327704 GXV327695:GXV327704 GNZ327695:GNZ327704 GED327695:GED327704 FUH327695:FUH327704 FKL327695:FKL327704 FAP327695:FAP327704 EQT327695:EQT327704 EGX327695:EGX327704 DXB327695:DXB327704 DNF327695:DNF327704 DDJ327695:DDJ327704 CTN327695:CTN327704 CJR327695:CJR327704 BZV327695:BZV327704 BPZ327695:BPZ327704 BGD327695:BGD327704 AWH327695:AWH327704 AML327695:AML327704 ACP327695:ACP327704 ST327695:ST327704 IX327695:IX327704 B327695:B327704 WVJ262159:WVJ262168 WLN262159:WLN262168 WBR262159:WBR262168 VRV262159:VRV262168 VHZ262159:VHZ262168 UYD262159:UYD262168 UOH262159:UOH262168 UEL262159:UEL262168 TUP262159:TUP262168 TKT262159:TKT262168 TAX262159:TAX262168 SRB262159:SRB262168 SHF262159:SHF262168 RXJ262159:RXJ262168 RNN262159:RNN262168 RDR262159:RDR262168 QTV262159:QTV262168 QJZ262159:QJZ262168 QAD262159:QAD262168 PQH262159:PQH262168 PGL262159:PGL262168 OWP262159:OWP262168 OMT262159:OMT262168 OCX262159:OCX262168 NTB262159:NTB262168 NJF262159:NJF262168 MZJ262159:MZJ262168 MPN262159:MPN262168 MFR262159:MFR262168 LVV262159:LVV262168 LLZ262159:LLZ262168 LCD262159:LCD262168 KSH262159:KSH262168 KIL262159:KIL262168 JYP262159:JYP262168 JOT262159:JOT262168 JEX262159:JEX262168 IVB262159:IVB262168 ILF262159:ILF262168 IBJ262159:IBJ262168 HRN262159:HRN262168 HHR262159:HHR262168 GXV262159:GXV262168 GNZ262159:GNZ262168 GED262159:GED262168 FUH262159:FUH262168 FKL262159:FKL262168 FAP262159:FAP262168 EQT262159:EQT262168 EGX262159:EGX262168 DXB262159:DXB262168 DNF262159:DNF262168 DDJ262159:DDJ262168 CTN262159:CTN262168 CJR262159:CJR262168 BZV262159:BZV262168 BPZ262159:BPZ262168 BGD262159:BGD262168 AWH262159:AWH262168 AML262159:AML262168 ACP262159:ACP262168 ST262159:ST262168 IX262159:IX262168 B262159:B262168 WVJ196623:WVJ196632 WLN196623:WLN196632 WBR196623:WBR196632 VRV196623:VRV196632 VHZ196623:VHZ196632 UYD196623:UYD196632 UOH196623:UOH196632 UEL196623:UEL196632 TUP196623:TUP196632 TKT196623:TKT196632 TAX196623:TAX196632 SRB196623:SRB196632 SHF196623:SHF196632 RXJ196623:RXJ196632 RNN196623:RNN196632 RDR196623:RDR196632 QTV196623:QTV196632 QJZ196623:QJZ196632 QAD196623:QAD196632 PQH196623:PQH196632 PGL196623:PGL196632 OWP196623:OWP196632 OMT196623:OMT196632 OCX196623:OCX196632 NTB196623:NTB196632 NJF196623:NJF196632 MZJ196623:MZJ196632 MPN196623:MPN196632 MFR196623:MFR196632 LVV196623:LVV196632 LLZ196623:LLZ196632 LCD196623:LCD196632 KSH196623:KSH196632 KIL196623:KIL196632 JYP196623:JYP196632 JOT196623:JOT196632 JEX196623:JEX196632 IVB196623:IVB196632 ILF196623:ILF196632 IBJ196623:IBJ196632 HRN196623:HRN196632 HHR196623:HHR196632 GXV196623:GXV196632 GNZ196623:GNZ196632 GED196623:GED196632 FUH196623:FUH196632 FKL196623:FKL196632 FAP196623:FAP196632 EQT196623:EQT196632 EGX196623:EGX196632 DXB196623:DXB196632 DNF196623:DNF196632 DDJ196623:DDJ196632 CTN196623:CTN196632 CJR196623:CJR196632 BZV196623:BZV196632 BPZ196623:BPZ196632 BGD196623:BGD196632 AWH196623:AWH196632 AML196623:AML196632 ACP196623:ACP196632 ST196623:ST196632 IX196623:IX196632 B196623:B196632 WVJ131087:WVJ131096 WLN131087:WLN131096 WBR131087:WBR131096 VRV131087:VRV131096 VHZ131087:VHZ131096 UYD131087:UYD131096 UOH131087:UOH131096 UEL131087:UEL131096 TUP131087:TUP131096 TKT131087:TKT131096 TAX131087:TAX131096 SRB131087:SRB131096 SHF131087:SHF131096 RXJ131087:RXJ131096 RNN131087:RNN131096 RDR131087:RDR131096 QTV131087:QTV131096 QJZ131087:QJZ131096 QAD131087:QAD131096 PQH131087:PQH131096 PGL131087:PGL131096 OWP131087:OWP131096 OMT131087:OMT131096 OCX131087:OCX131096 NTB131087:NTB131096 NJF131087:NJF131096 MZJ131087:MZJ131096 MPN131087:MPN131096 MFR131087:MFR131096 LVV131087:LVV131096 LLZ131087:LLZ131096 LCD131087:LCD131096 KSH131087:KSH131096 KIL131087:KIL131096 JYP131087:JYP131096 JOT131087:JOT131096 JEX131087:JEX131096 IVB131087:IVB131096 ILF131087:ILF131096 IBJ131087:IBJ131096 HRN131087:HRN131096 HHR131087:HHR131096 GXV131087:GXV131096 GNZ131087:GNZ131096 GED131087:GED131096 FUH131087:FUH131096 FKL131087:FKL131096 FAP131087:FAP131096 EQT131087:EQT131096 EGX131087:EGX131096 DXB131087:DXB131096 DNF131087:DNF131096 DDJ131087:DDJ131096 CTN131087:CTN131096 CJR131087:CJR131096 BZV131087:BZV131096 BPZ131087:BPZ131096 BGD131087:BGD131096 AWH131087:AWH131096 AML131087:AML131096 ACP131087:ACP131096 ST131087:ST131096 IX131087:IX131096 B131087:B131096 WVJ65551:WVJ65560 WLN65551:WLN65560 WBR65551:WBR65560 VRV65551:VRV65560 VHZ65551:VHZ65560 UYD65551:UYD65560 UOH65551:UOH65560 UEL65551:UEL65560 TUP65551:TUP65560 TKT65551:TKT65560 TAX65551:TAX65560 SRB65551:SRB65560 SHF65551:SHF65560 RXJ65551:RXJ65560 RNN65551:RNN65560 RDR65551:RDR65560 QTV65551:QTV65560 QJZ65551:QJZ65560 QAD65551:QAD65560 PQH65551:PQH65560 PGL65551:PGL65560 OWP65551:OWP65560 OMT65551:OMT65560 OCX65551:OCX65560 NTB65551:NTB65560 NJF65551:NJF65560 MZJ65551:MZJ65560 MPN65551:MPN65560 MFR65551:MFR65560 LVV65551:LVV65560 LLZ65551:LLZ65560 LCD65551:LCD65560 KSH65551:KSH65560 KIL65551:KIL65560 JYP65551:JYP65560 JOT65551:JOT65560 JEX65551:JEX65560 IVB65551:IVB65560 ILF65551:ILF65560 IBJ65551:IBJ65560 HRN65551:HRN65560 HHR65551:HHR65560 GXV65551:GXV65560 GNZ65551:GNZ65560 GED65551:GED65560 FUH65551:FUH65560 FKL65551:FKL65560 FAP65551:FAP65560 EQT65551:EQT65560 EGX65551:EGX65560 DXB65551:DXB65560 DNF65551:DNF65560 DDJ65551:DDJ65560 CTN65551:CTN65560 CJR65551:CJR65560 BZV65551:BZV65560 BPZ65551:BPZ65560 BGD65551:BGD65560 AWH65551:AWH65560 AML65551:AML65560 ACP65551:ACP65560 ST65551:ST65560 IX65551:IX65560 B65551:B65560 WVJ14:WVJ23 WLN14:WLN23 WBR14:WBR23 VRV14:VRV23 VHZ14:VHZ23 UYD14:UYD23 UOH14:UOH23 UEL14:UEL23 TUP14:TUP23 TKT14:TKT23 TAX14:TAX23 SRB14:SRB23 SHF14:SHF23 RXJ14:RXJ23 RNN14:RNN23 RDR14:RDR23 QTV14:QTV23 QJZ14:QJZ23 QAD14:QAD23 PQH14:PQH23 PGL14:PGL23 OWP14:OWP23 OMT14:OMT23 OCX14:OCX23 NTB14:NTB23 NJF14:NJF23 MZJ14:MZJ23 MPN14:MPN23 MFR14:MFR23 LVV14:LVV23 LLZ14:LLZ23 LCD14:LCD23 KSH14:KSH23 KIL14:KIL23 JYP14:JYP23 JOT14:JOT23 JEX14:JEX23 IVB14:IVB23 ILF14:ILF23 IBJ14:IBJ23 HRN14:HRN23 HHR14:HHR23 GXV14:GXV23 GNZ14:GNZ23 GED14:GED23 FUH14:FUH23 FKL14:FKL23 FAP14:FAP23 EQT14:EQT23 EGX14:EGX23 DXB14:DXB23 DNF14:DNF23 DDJ14:DDJ23 CTN14:CTN23 CJR14:CJR23 BZV14:BZV23 BPZ14:BPZ23 BGD14:BGD23 AWH14:AWH23 AML14:AML23 ACP14:ACP23 ST14:ST23 IX14:IX23" xr:uid="{00000000-0002-0000-0000-000000000000}">
